--- a/Dataset/Folds/Fold_1/Excel/74.xlsx
+++ b/Dataset/Folds/Fold_1/Excel/74.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3537" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3945" uniqueCount="551">
   <si>
     <t>Doi</t>
   </si>
@@ -1599,6 +1599,243 @@
   </si>
   <si>
     <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,                            Ashraf A%Ewis%NULL%1,                            Eman M%Mahfouz%NULL%1,                            Doaa M%Khalil%NULL%1,                            Ahmed%Arafa%NULL%1,                            Zeinab%Mohammed%NULL%1,                            El-Nabgha F%Mohammed%NULL%1,                            Ebtesam E%Hassan%NULL%1,                            Sarah%Abdel Hamid%NULL%1,                            Somaya A%Ewis%NULL%1,                            Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,                             Sabrina%Donati Zeppa%NULL%2,                             Sabrina%Donati Zeppa%NULL%0,                             Antonio%Preti%NULL%2,                             Antonio%Preti%NULL%0,                             Marco%Gervasi%NULL%2,                             Marco%Gervasi%NULL%0,                             Erica%Gobbi%NULL%2,                             Erica%Gobbi%NULL%0,                             Fabio%Ferrini%NULL%2,                             Fabio%Ferrini%NULL%0,                             Marco B. L.%Rocchi%NULL%1,                             Carlo%Baldari%NULL%2,                             Carlo%Baldari%NULL%0,                             Fabrizio%Perroni%NULL%2,                             Fabrizio%Perroni%NULL%0,                             Giovanni%Piccoli%NULL%2,                             Giovanni%Piccoli%NULL%0,                             Vilberto%Stocchi%NULL%1,                             Piero%Sestili%NULL%1,                             Davide%Sisti%NULL%2,                             Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,                             Dominika%Ochnik%NULL%1,                             Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,                             Cyril%Tarquinio%NULL%1,                             Martine%Batt%NULL%1,                             Pascale%Tarquinio%NULL%1,                             Romain%Lebreuilly%NULL%1,                             Christine%Sorsana%NULL%1,                             Karine%Legrand%NULL%1,                             Hélène%Rousseau%NULL%1,                             Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,                             Shun-wei%Liang%NULL%1,                             Yang%Peng%NULL%1,                             Xue-guo%Li%NULL%1,                             Jian-bin%Chen%NULL%1,                             Si-yao%Tang%NULL%1,                             Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,                             Benjamin%Becker%NULL%0,                             Qian%Yu%NULL%0,                             Peter%Willeit%NULL%0,                             Can%Jiao%NULL%0,                             Liuyue%Huang%NULL%0,                             M. Mahhub%Hossain%NULL%0,                             Igor%Grabovac%NULL%0,                             Albert%Yeung%NULL%0,                             Jingyuan%Lin%NULL%0,                             Nicola%Veronese%NULL%0,                             Jian%Wang%NULL%0,                             Xinqi%Zhou%NULL%0,                             Scott R.%Doig%NULL%0,                             Xiaofeng%Liu%NULL%0,                             Andre F.%Carvalho%NULL%0,                             Lin%Yang%NULL%0,                             Tao%Xiao%NULL%0,                             Liye%Zou%NULL%0,                             Paolo%Fusar-Poli%NULL%0,                             Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,                             Foster Kofi%Ayittey%NULL%2,                             Foster Kofi%Ayittey%NULL%0,                             Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,                             Annina%Zysset%NULL%2,                             Annina%Zysset%NULL%0,                             Nadine%Schlatter%NULL%1,                             Agnes%von Wyl%NULL%1,                             Marion%Huber%NULL%1,                             Thomas%Volken%NULL%2,                             Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,                             Megan Chong Hueh%Zan%NULL%2,                             Megan Chong Hueh%Zan%NULL%0,                             Min Jung%Cho%NULL%1,                             Jenifer I.%Fenton%NULL%2,                             Jenifer I.%Fenton%NULL%0,                             Pao Ying%Hsiao%NULL%2,                             Pao Ying%Hsiao%NULL%0,                             Richard%Hsiao%NULL%1,                             Laura%Keaver%NULL%1,                             Chang-Chi%Lai%NULL%2,                             Chang-Chi%Lai%NULL%0,                             HeeSoon%Lee%NULL%1,                             Mary-Jon%Ludy%NULL%2,                             Mary-Jon%Ludy%NULL%0,                             Wan%Shen%NULL%1,                             Winnie Chee Siew%Swee%NULL%2,                             Winnie Chee Siew%Swee%NULL%0,                             Jyothi%Thrivikraman%NULL%2,                             Jyothi%Thrivikraman%NULL%0,                             Kuo-Wei%Tseng%NULL%1,                             Wei-Chin%Tseng%NULL%1,                             Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,                             Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,                             Shijiao%Yan%NULL%0,                             Qiao%Zong%NULL%1,                             Dan%Anderson-Luxford%NULL%1,                             Xingyue%Song%NULL%1,                             Zhiyue%Lv%NULL%1,                             Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,                             Viera%Ivankova%NULL%2,                             Viera%Ivankova%NULL%0,                             Martin%Rigelsky%NULL%2,                             Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,                             Ashraf A%Ewis%NULL%1,                             Eman M%Mahfouz%NULL%1,                             Doaa M%Khalil%NULL%1,                             Ahmed%Arafa%NULL%1,                             Zeinab%Mohammed%NULL%1,                             El-Nabgha F%Mohammed%NULL%1,                             Ebtesam E%Hassan%NULL%1,                             Sarah%Abdel Hamid%NULL%1,                             Somaya A%Ewis%NULL%1,                             Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,                              Sabrina%Donati Zeppa%NULL%2,                              Sabrina%Donati Zeppa%NULL%0,                              Antonio%Preti%NULL%2,                              Antonio%Preti%NULL%0,                              Marco%Gervasi%NULL%2,                              Marco%Gervasi%NULL%0,                              Erica%Gobbi%NULL%2,                              Erica%Gobbi%NULL%0,                              Fabio%Ferrini%NULL%2,                              Fabio%Ferrini%NULL%0,                              Marco B. L.%Rocchi%NULL%1,                              Carlo%Baldari%NULL%2,                              Carlo%Baldari%NULL%0,                              Fabrizio%Perroni%NULL%2,                              Fabrizio%Perroni%NULL%0,                              Giovanni%Piccoli%NULL%2,                              Giovanni%Piccoli%NULL%0,                              Vilberto%Stocchi%NULL%1,                              Piero%Sestili%NULL%1,                              Davide%Sisti%NULL%2,                              Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,                              Dominika%Ochnik%NULL%1,                              Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,                              Cyril%Tarquinio%NULL%1,                              Martine%Batt%NULL%1,                              Pascale%Tarquinio%NULL%1,                              Romain%Lebreuilly%NULL%1,                              Christine%Sorsana%NULL%1,                              Karine%Legrand%NULL%1,                              Hélène%Rousseau%NULL%1,                              Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,                              Shun-wei%Liang%NULL%1,                              Yang%Peng%NULL%1,                              Xue-guo%Li%NULL%1,                              Jian-bin%Chen%NULL%1,                              Si-yao%Tang%NULL%1,                              Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,                              Benjamin%Becker%NULL%0,                              Qian%Yu%NULL%0,                              Peter%Willeit%NULL%0,                              Can%Jiao%NULL%0,                              Liuyue%Huang%NULL%0,                              M. Mahhub%Hossain%NULL%0,                              Igor%Grabovac%NULL%0,                              Albert%Yeung%NULL%0,                              Jingyuan%Lin%NULL%0,                              Nicola%Veronese%NULL%0,                              Jian%Wang%NULL%0,                              Xinqi%Zhou%NULL%0,                              Scott R.%Doig%NULL%0,                              Xiaofeng%Liu%NULL%0,                              Andre F.%Carvalho%NULL%0,                              Lin%Yang%NULL%0,                              Tao%Xiao%NULL%0,                              Liye%Zou%NULL%0,                              Paolo%Fusar-Poli%NULL%0,                              Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,                              Foster Kofi%Ayittey%NULL%2,                              Foster Kofi%Ayittey%NULL%0,                              Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,                              Annina%Zysset%NULL%2,                              Annina%Zysset%NULL%0,                              Nadine%Schlatter%NULL%1,                              Agnes%von Wyl%NULL%1,                              Marion%Huber%NULL%1,                              Thomas%Volken%NULL%2,                              Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,                              Megan Chong Hueh%Zan%NULL%2,                              Megan Chong Hueh%Zan%NULL%0,                              Min Jung%Cho%NULL%1,                              Jenifer I.%Fenton%NULL%2,                              Jenifer I.%Fenton%NULL%0,                              Pao Ying%Hsiao%NULL%2,                              Pao Ying%Hsiao%NULL%0,                              Richard%Hsiao%NULL%1,                              Laura%Keaver%NULL%1,                              Chang-Chi%Lai%NULL%2,                              Chang-Chi%Lai%NULL%0,                              HeeSoon%Lee%NULL%1,                              Mary-Jon%Ludy%NULL%2,                              Mary-Jon%Ludy%NULL%0,                              Wan%Shen%NULL%1,                              Winnie Chee Siew%Swee%NULL%2,                              Winnie Chee Siew%Swee%NULL%0,                              Jyothi%Thrivikraman%NULL%2,                              Jyothi%Thrivikraman%NULL%0,                              Kuo-Wei%Tseng%NULL%1,                              Wei-Chin%Tseng%NULL%1,                              Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,                              Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,                              Shijiao%Yan%NULL%0,                              Qiao%Zong%NULL%1,                              Dan%Anderson-Luxford%NULL%1,                              Xingyue%Song%NULL%1,                              Zhiyue%Lv%NULL%1,                              Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,                              Viera%Ivankova%NULL%2,                              Viera%Ivankova%NULL%0,                              Martin%Rigelsky%NULL%2,                              Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,                              Ashraf A%Ewis%NULL%1,                              Eman M%Mahfouz%NULL%1,                              Doaa M%Khalil%NULL%1,                              Ahmed%Arafa%NULL%1,                              Zeinab%Mohammed%NULL%1,                              El-Nabgha F%Mohammed%NULL%1,                              Ebtesam E%Hassan%NULL%1,                              Sarah%Abdel Hamid%NULL%1,                              Somaya A%Ewis%NULL%1,                              Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social isolation has adverse effects on mental health, physical exercise, and dietary habits.
+ This longitudinal observational study aimed to investigate the effects of mood states and exercise on nutritional choices, on 176 college students (92 males, 84 females; 23 ± 4 years old) during the COVID-19 lockdown.
+ During 21 days, nutrition and exercise were daily monitored, and the mood states assessed.
+ A factor analysis was used to reduce the number of nutritional variables collected.
+ The relationships between exercise, mood and nutrition were investigated using a multivariate general linear model and a mediation model.
+ Seven factors were found, reflecting different nutritional choices.
+ Exercise was positively associated with fruit, vegetables and fish consumption (p = 0.004).
+ Depression and quality of life were, directly and inversely, associated with cereals, legumes (p = 0.005; p = 0.004) and low-fat meat intake (p = 0.040; p = 0.004).
+ Exercise mediated the effect of mood states on fruit, vegetables and fish consumption, respectively, accounting for 4.2% and 1.8% of the total variance.
+ Poorer mood states possibly led to unhealthy dietary habits, which can themselves be linked to negative mood levels.
+ Exercise led to healthier nutritional choices, and mediating the effects of mood states, it might represent a key measure in uncommon situations, such as home-confinement.
+</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%0, Sabrina%Donati Zeppa%NULL%2, Sabrina%Donati Zeppa%NULL%0, Antonio%Preti%NULL%2, Antonio%Preti%NULL%0, Marco%Gervasi%NULL%2, Marco%Gervasi%NULL%0, Erica%Gobbi%NULL%2, Erica%Gobbi%NULL%0, Fabio%Ferrini%NULL%2, Fabio%Ferrini%NULL%0, Marco B. L.%Rocchi%NULL%1, Carlo%Baldari%NULL%2, Carlo%Baldari%NULL%0, Fabrizio%Perroni%NULL%2, Fabrizio%Perroni%NULL%0, Giovanni%Piccoli%NULL%2, Giovanni%Piccoli%NULL%0, Vilberto%Stocchi%NULL%1, Piero%Sestili%NULL%1, Davide%Sisti%NULL%2, Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>MDPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students have been highly vulnerable to mental health issues during the COVID-19 pandemic, and researchers have shown that perceived stress and mental health problems have increased during the pandemic.
+ The aim of this study was to reveal the prevalence of perceived stress and mental health among students during the pandemic and to explore predictors of stress levels.
+ A cross-sectional study was conducted on a sample of 358 undergraduates from 14 universities in Turkey, including 200 female students (56%).
+ The measurements used in the study were the Generalized Anxiety Disorder 7-item (GAD-7) scale, Patient Health Questionnaire (PHQ-8), Satisfaction with Life Scale (SWLS), Perception of COVID Impact on Student Well-Being (CI), Perceived Stress Scale (PSS-10), Physical Activity Scale (PA), and a sociodemographic survey.
+ Students reported high perceived stress, mild generalized anxiety, and low satisfaction with life.
+ More than half of the students met the diagnostic criteria of GAD (52%) and depression (63%).
+ Female and physically inactive students had higher PSS-10 levels.
+ A hierarchical linear regression model showed that after controlling for gender and negative CI, anxiety and physical inactivity significantly predicted high perceived stress.
+ The study shows that students’ mental health during the pandemic is at high risk.
+ </t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%0, Dominika%Ochnik%NULL%1, Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Compared to previous studies in China, greater levels of anxiety were reported among French students in an area particularly affected by the disease, with more than half of these students experiencing anxiety.
+</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%0, Cyril%Tarquinio%NULL%1, Martine%Batt%NULL%1, Pascale%Tarquinio%NULL%1, Romain%Lebreuilly%NULL%1, Christine%Sorsana%NULL%1, Karine%Legrand%NULL%1, Hélène%Rousseau%NULL%1, Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              7.7% of college students showed depressive symptoms during the COVID-19 pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%0, Shun-wei%Liang%NULL%1, Yang%Peng%NULL%1, Xue-guo%Li%NULL%1, Jian-bin%Chen%NULL%1, Si-yao%Tang%NULL%1, Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0, Benjamin%Becker%NULL%0, Qian%Yu%NULL%0, Peter%Willeit%NULL%0, Can%Jiao%NULL%0, Liuyue%Huang%NULL%0, M. Mahhub%Hossain%NULL%0, Igor%Grabovac%NULL%0, Albert%Yeung%NULL%0, Jingyuan%Lin%NULL%0, Nicola%Veronese%NULL%0, Jian%Wang%NULL%0, Xinqi%Zhou%NULL%0, Scott R.%Doig%NULL%0, Xiaofeng%Liu%NULL%0, Andre F.%Carvalho%NULL%0, Lin%Yang%NULL%0, Tao%Xiao%NULL%0, Liye%Zou%NULL%0, Paolo%Fusar-Poli%NULL%0, Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>Frontiers Media S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The purpose of the study is to find out the psychological impact of the COVID‐19 pandemic on university students.
+ The study focuses on the university students from different public and private universities of Bangladesh through a set of questionnaires according to the guideline of Generalized Anxiety Disorder Scale (GAD‐7).
+ The result among 15 543 respondents shows that 44.59% are suffering from severe anxiety, 48.41% moderate anxiety, and only 3.82% mild anxiety.
+ The results highlight that all epidemic‐related stressors are positively correlated with the level of anxiety.
+ Among the epidemic‐related stressors, worry about economic influences during and after COVID‐19 (r = 0.342, p &amp;lt; 0.001) and worry about the influence of COVID‐19 on daily life (r = 0.340, p &amp;lt; 0.001) have a highly positive impact on the level of anxiety.
+ Following these stressors, worry about academic delays due to COVID‐19 (r = 0.326, p &amp;lt; 0.001) and worry about the social support during COVID‐19 (r = 0.321, p &amp;lt; 0.001) have moderately and positively correlated with the level of anxiety.
+ The study suggests that proper government support, as well as social awareness, should be monitored during epidemics for decreasing anxiety and maintaining a good mental health of the university students.
+</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%0, Foster Kofi%Ayittey%NULL%2, Foster Kofi%Ayittey%NULL%0, Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University students were confronted with abrupt changes to their daily lives by the COVID-19 lock-down.
+ We investigated Generalized Anxiety Disorder Scale-7 (GAD-7) and anxiety levels, and the association between perceived impact on well-being, studies, and daily lives and anxiety levels, adjusted for gender, age, social class and affiliation.
+ Early in the lock-down all students of the Zurich University of Applied Sciences (N = 12,429) were invited to a voluntary longitudinal health survey.
+ Participation rate was 20% (n = 2437): 70% females, median age 25 yrs.
+ (IQR 23–28).
+ A total of 10% reported a deterioration of well-being compared to pre-Corona.
+ LCA yielded three classes varying in perceived COVID-19 impact: 1 (low, n = 675), 2 (moderate, n = 1098), and 3 (strong, n = 656).
+ Adjusted proportion of moderate to severe anxiety by class were 45% (95% CI: 28.0–62.0), 15.5% (95% CI: 13.1–17.9), and 5.1% (95% CI: 4.7–5.6), respectively.
+ Multivariate regression analyses yielded an OR for moderate to severe anxiety of 3.88 (95% CI: 2.5–6.0, class 2) and 22.43 (95% CI: 14.5–34.6, class 3) compared to class-1. The investigated association implies that containment measures have a selective effect on anxiety in students.
+ The diversity of students’ perception and associated anxiety should be monitored and considered in future response to pandemics.
+</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%0, Annina%Zysset%NULL%2, Annina%Zysset%NULL%0, Nadine%Schlatter%NULL%1, Agnes%von Wyl%NULL%1, Marion%Huber%NULL%1, Thomas%Volken%NULL%2, Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High levels of perceived stress and anxiety among university students are a global concern and are known to negatively influence sleep.
+ However, few studies have explored how stress response styles, like psychological resilience and rumination, might alter these relationships.
+ Using validated tools, perceived stress, anxiety, stress response styles, and sleep behaviors of undergraduate and graduate students from seven countries during the height of the COVID-19 pandemic were characterized in order to examine the relationships between these factors using mediation and moderation analyses.
+ Students enrolled in universities in China, Ireland, Malaysia, Taiwan, South Korea, the Netherlands, and the United States were recruited in May 2020. A total of 2254 students completed this cross-sectional study.
+ Perceived stress and anxiety were negatively associated with sleep quality through the mediation of rumination.
+ Increased psychological resilience weakened the relationships between perceived stress and anxiety on sleep quality.
+ The majority of students reported that COVID-19 negatively influenced their mental health and sleep quality but not sleep duration.
+ Based on these results, university students would likely benefit from sleep education and mental health promotion programs that include trainings to increase psychological resilience and reduce rumination, particularly during times of increased stress.
+</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%0, Megan Chong Hueh%Zan%NULL%2, Megan Chong Hueh%Zan%NULL%0, Min Jung%Cho%NULL%1, Jenifer I.%Fenton%NULL%2, Jenifer I.%Fenton%NULL%0, Pao Ying%Hsiao%NULL%2, Pao Ying%Hsiao%NULL%0, Richard%Hsiao%NULL%1, Laura%Keaver%NULL%1, Chang-Chi%Lai%NULL%2, Chang-Chi%Lai%NULL%0, HeeSoon%Lee%NULL%1, Mary-Jon%Ludy%NULL%2, Mary-Jon%Ludy%NULL%0, Wan%Shen%NULL%1, Winnie Chee Siew%Swee%NULL%2, Winnie Chee Siew%Swee%NULL%0, Jyothi%Thrivikraman%NULL%2, Jyothi%Thrivikraman%NULL%0, Kuo-Wei%Tseng%NULL%1, Wei-Chin%Tseng%NULL%1, Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study evaluates the impact of Covid-19 on the mental health of 8004 French students in the East part of France, which has been the first and hardest hit region by the Covid-19 pandemic.
+ This is, to our knowledge, the largest study conducted on mental health of students during the pandemic.
+ Our results show that students suffer from particularly high level of anxiety, depression and distress.
+ A significant proportion of students might require psychological support, especially because the high distress scores suggest that the epidemic and confinement have favored the emergence of post-traumatic stress symptoms.
+</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%0, Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              1
+              What is the primary question addressed by this study? To assess the psychological status of college students in China during the COVID-19 outbreak, and offer some theoretical evidence for psychological intervention of college students.
+</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%0, Shijiao%Yan%NULL%0, Qiao%Zong%NULL%1, Dan%Anderson-Luxford%NULL%1, Xingyue%Song%NULL%0, Zhiyue%Lv%NULL%1, Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>The Authors. Published by Elsevier B.V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The objective of the study was to examine the effects of perceived stress on depression and subsequently to examine the effects of depression on alcohol use disorders.
+ The data were obtained by an electronic questionnaire survey during the coronavirus disease 2019 (COVID-19) pandemic (n = 1523 Slovak university students).
+ Descriptive, regression, and correlation analysis were used in the analytical processing, while the analyses included students’ scores in three diagnostic tools (Perceived Stress Scale (PSS), Patient Health Questionnaire for depression (PHQ 9), and Alcohol Use Disorders Identification Test (AUDIT)), as well as gender and income characteristics.
+ The PSS identified an increased level of perceived stress in female students, while in contrast, the AUDIT showed an increased level of alcohol use disorders in male students.
+ Differences in mental and behavioural disorders between the gender and income categories were significant in most of the analysed cases.
+ In terms of gender-income characteristics, it was possible to confirm a significant positive effect of the PSS score on the PHQ 9 score, as well as a significant positive effect of the PHQ 9 score on the AUDIT score.
+ As a result, efforts to reduce stress will be reflected in a reduction of depressive disorders as well as a reduction of excessive alcohol consumption among students.
+</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%0, Viera%Ivankova%NULL%2, Viera%Ivankova%NULL%0, Martin%Rigelsky%NULL%2, Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University students are at elevated risk for mental health problems.
+ The COVID-19 pandemic and subsequent public health measures taken to combat it burdened the students’ life with additional dramatic psychological impacts.
+ The aim of this study was to investigate the psychological impacts that affected the university students in Egypt during the COVID-19 pandemic.
+ An online survey was sent to the Egyptian university students via all means of online communication during the first week of May 2020 by using a non-probability snowball sampling.
+ A survey included a short version Depression Anxiety Stress Scale-21 (DASS-21) and socio-demographic data.
+ Overall, 70.5, 53.6 and 47.8% of Egyptian students had depression, anxiety and stress, respectively.
+ Being a female, having a relative or acquaintance infected with COVID-19, having a preexisting chronic disease and lacking of psychological support from families, community and universities increase the risk of depression, anxiety and stress among Egyptian students.
+ Being a medical student is associated with depression while, spending more time to follow news of COVID-19 pandemic is associated with increased anxiety.
+ Egyptian students experience varying levels of psychological disturbance during COVID-19 pandemic.
+ This study suggests that mental health of the university students should be carefully, monitored during the crisis and the universities should provide psychological-oriented services, adapted to these circumstances to mitigate its emotional impact on the students.
+ </t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%0, Ashraf A%Ewis%NULL%1, Eman M%Mahfouz%NULL%1, Doaa M%Khalil%NULL%1, Ahmed%Arafa%NULL%1, Zeinab%Mohammed%NULL%1, El-Nabgha F%Mohammed%NULL%1, Ebtesam E%Hassan%NULL%1, Sarah%Abdel Hamid%NULL%1, Somaya A%Ewis%NULL%1, Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
   </si>
 </sst>
 </file>
@@ -1975,10 +2212,10 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>521</v>
       </c>
       <c r="E2" t="s">
-        <v>483</v>
+        <v>522</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1990,10 +2227,10 @@
         <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>363</v>
+        <v>138</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3">
@@ -2007,10 +2244,10 @@
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>524</v>
       </c>
       <c r="E3" t="s">
-        <v>484</v>
+        <v>525</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -2022,10 +2259,10 @@
         <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>363</v>
+        <v>138</v>
       </c>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4">
@@ -2036,25 +2273,25 @@
         <v>44179.0</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
         <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>365</v>
+        <v>138</v>
       </c>
       <c r="J4" t="s">
         <v>138</v>
@@ -2068,25 +2305,25 @@
         <v>43991.0</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>485</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
         <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>365</v>
+        <v>138</v>
       </c>
       <c r="J5" t="s">
         <v>138</v>
@@ -2103,10 +2340,10 @@
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="E6" t="s">
-        <v>486</v>
+        <v>527</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -2118,10 +2355,10 @@
         <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>368</v>
+        <v>138</v>
       </c>
       <c r="J6" t="s">
-        <v>138</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7">
@@ -2135,10 +2372,10 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>529</v>
       </c>
       <c r="E7" t="s">
-        <v>487</v>
+        <v>530</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -2150,10 +2387,10 @@
         <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>368</v>
+        <v>138</v>
       </c>
       <c r="J7" t="s">
-        <v>138</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8">
@@ -2170,7 +2407,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -2182,10 +2419,10 @@
         <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>363</v>
+        <v>138</v>
       </c>
       <c r="J8" t="s">
-        <v>138</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9">
@@ -2199,10 +2436,10 @@
         <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>534</v>
       </c>
       <c r="E9" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -2214,10 +2451,10 @@
         <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>363</v>
+        <v>138</v>
       </c>
       <c r="J9" t="s">
-        <v>138</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10">
@@ -2228,25 +2465,25 @@
         <v>44174.0</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>490</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
         <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>365</v>
+        <v>138</v>
       </c>
       <c r="J10" t="s">
         <v>138</v>
@@ -2263,10 +2500,10 @@
         <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>537</v>
       </c>
       <c r="E11" t="s">
-        <v>491</v>
+        <v>538</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -2278,10 +2515,10 @@
         <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>363</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>138</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12">
@@ -2295,10 +2532,10 @@
         <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>539</v>
       </c>
       <c r="E12" t="s">
-        <v>492</v>
+        <v>540</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -2310,10 +2547,10 @@
         <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>363</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13">
@@ -2327,10 +2564,10 @@
         <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>541</v>
       </c>
       <c r="E13" t="s">
-        <v>493</v>
+        <v>542</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -2342,10 +2579,10 @@
         <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>368</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14">
@@ -2356,28 +2593,28 @@
         <v>44134.0</v>
       </c>
       <c r="C14" t="s">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>408</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s">
         <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>409</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
@@ -2391,10 +2628,10 @@
         <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>543</v>
       </c>
       <c r="E15" t="s">
-        <v>494</v>
+        <v>544</v>
       </c>
       <c r="F15" t="s">
         <v>78</v>
@@ -2406,10 +2643,10 @@
         <v>79</v>
       </c>
       <c r="I15" t="s">
-        <v>368</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>545</v>
       </c>
     </row>
     <row r="16">
@@ -2423,10 +2660,10 @@
         <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>546</v>
       </c>
       <c r="E16" t="s">
-        <v>495</v>
+        <v>547</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
@@ -2438,10 +2675,10 @@
         <v>34</v>
       </c>
       <c r="I16" t="s">
-        <v>363</v>
+        <v>138</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17">
@@ -2455,10 +2692,10 @@
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>548</v>
       </c>
       <c r="E17" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="F17" t="s">
         <v>87</v>
@@ -2470,10 +2707,10 @@
         <v>40</v>
       </c>
       <c r="I17" t="s">
-        <v>363</v>
+        <v>138</v>
       </c>
       <c r="J17" t="s">
-        <v>138</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
